--- a/config-info/河南理工大学-秋季-作息时间表.xlsx
+++ b/config-info/河南理工大学-秋季-作息时间表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
   <si>
     <t>触发时间</t>
   </si>
@@ -41,13 +41,19 @@
     <t>备注</t>
   </si>
   <si>
-    <t>第一节</t>
+    <t>第一节-上课</t>
   </si>
   <si>
     <t>通用铃-1</t>
   </si>
   <si>
-    <t>第二节</t>
+    <t>第一节-下课</t>
+  </si>
+  <si>
+    <t>第二节-上课</t>
+  </si>
+  <si>
+    <t>第二节-下课</t>
   </si>
   <si>
     <t>通用铃-2</t>
@@ -56,34 +62,61 @@
     <t>大课间</t>
   </si>
   <si>
-    <t>第三节</t>
-  </si>
-  <si>
-    <t>第四节</t>
-  </si>
-  <si>
-    <t>第五节</t>
+    <t>第三节-上课</t>
+  </si>
+  <si>
+    <t>第三节-下课</t>
+  </si>
+  <si>
+    <t>第四节-上课</t>
+  </si>
+  <si>
+    <t>第四节-下课</t>
+  </si>
+  <si>
+    <t>第五节-上课</t>
+  </si>
+  <si>
+    <t>第五节-下课</t>
   </si>
   <si>
     <t>午饭午休</t>
   </si>
   <si>
-    <t>第六节</t>
-  </si>
-  <si>
-    <t>第七节</t>
-  </si>
-  <si>
-    <t>第八节</t>
-  </si>
-  <si>
-    <t>第九节</t>
-  </si>
-  <si>
-    <t>第十节</t>
-  </si>
-  <si>
-    <t>第十一节</t>
+    <t>第六节-上课</t>
+  </si>
+  <si>
+    <t>第六节-下课</t>
+  </si>
+  <si>
+    <t>第七节-上课</t>
+  </si>
+  <si>
+    <t>第七节-下课</t>
+  </si>
+  <si>
+    <t>第八节-上课</t>
+  </si>
+  <si>
+    <t>第八节-下课</t>
+  </si>
+  <si>
+    <t>第九节-上课</t>
+  </si>
+  <si>
+    <t>第九节-下课</t>
+  </si>
+  <si>
+    <t>第十节-上课</t>
+  </si>
+  <si>
+    <t>第十节-下课</t>
+  </si>
+  <si>
+    <t>第十一节-上课</t>
+  </si>
+  <si>
+    <t>第十一节-下课</t>
   </si>
   <si>
     <t>11点熄灯</t>
@@ -1096,10 +1129,13 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -1131,7 +1167,7 @@
         <v>0.364583333333333</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -1142,7 +1178,7 @@
         <v>0.371527777777778</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1153,13 +1189,13 @@
         <v>0.402777777777778</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1167,7 +1203,7 @@
         <v>0.416666666666667</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1178,7 +1214,7 @@
         <v>0.447916666666667</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1189,7 +1225,7 @@
         <v>0.454861111111111</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1200,7 +1236,7 @@
         <v>0.486111111111111</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -1211,7 +1247,7 @@
         <v>0.493055555555556</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1222,13 +1258,13 @@
         <v>0.524305555555556</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1236,7 +1272,7 @@
         <v>0.604166666666667</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -1247,7 +1283,7 @@
         <v>0.635416666666667</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -1258,7 +1294,7 @@
         <v>0.642361111111111</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1269,13 +1305,13 @@
         <v>0.673611111111111</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1283,7 +1319,7 @@
         <v>0.6875</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -1294,7 +1330,7 @@
         <v>0.71875</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -1305,7 +1341,7 @@
         <v>0.725694444444444</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -1316,7 +1352,7 @@
         <v>0.756944444444444</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -1327,7 +1363,7 @@
         <v>0.791666666666667</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -1338,7 +1374,7 @@
         <v>0.822916666666667</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -1349,7 +1385,7 @@
         <v>0.829861111111111</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -1360,13 +1396,13 @@
         <v>0.861111111111111</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
